--- a/data/trans_orig/P16A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD09273-A8FC-4705-A3EF-979A1E51A93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F535A03-1CB3-4533-B00E-30035D1EB2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B904E992-9EFC-40B2-A68A-016ADC6C3CD2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9506635A-14DA-4C69-A3F5-8902283C9091}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="427">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1240 +80,1246 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,18%</t>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>93,33%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>94,46%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>93,93%</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +1731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47DB5FD-C0AD-4020-B6B8-E7429AA2C021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBF8DF5-1BA5-426C-8086-A2CA78ACE556}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2010,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2019,13 +2025,13 @@
         <v>1847</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2037,10 +2043,10 @@
         <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,10 +2061,10 @@
         <v>734554</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2070,10 +2076,10 @@
         <v>623647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2088,10 +2094,10 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,7 +2153,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2159,13 +2165,13 @@
         <v>4616</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2174,13 +2180,13 @@
         <v>7696</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2189,13 +2195,13 @@
         <v>12312</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2216,13 @@
         <v>633033</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -2225,13 +2231,13 @@
         <v>682048</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -2240,13 +2246,13 @@
         <v>1315082</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,7 +2308,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2314,13 +2320,13 @@
         <v>12816</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2329,13 +2335,13 @@
         <v>17249</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -2344,13 +2350,13 @@
         <v>30065</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2371,13 @@
         <v>506331</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>486</v>
@@ -2380,13 +2386,13 @@
         <v>498393</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>958</v>
@@ -2395,13 +2401,13 @@
         <v>1004724</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,7 +2463,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2469,13 +2475,13 @@
         <v>42847</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -2484,13 +2490,13 @@
         <v>24653</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -2499,13 +2505,13 @@
         <v>67500</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2526,13 @@
         <v>343863</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>372</v>
@@ -2535,13 +2541,13 @@
         <v>379333</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>720</v>
@@ -2550,13 +2556,13 @@
         <v>723196</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,7 +2618,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2624,13 +2630,13 @@
         <v>115272</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -2639,13 +2645,13 @@
         <v>126560</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -2654,13 +2660,13 @@
         <v>241832</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2681,13 @@
         <v>387194</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H20" s="7">
         <v>539</v>
@@ -2690,13 +2696,13 @@
         <v>550282</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M20" s="7">
         <v>941</v>
@@ -2705,10 +2711,10 @@
         <v>937476</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>113</v>
@@ -2827,7 +2833,7 @@
         <v>3029</v>
       </c>
       <c r="D23" s="7">
-        <v>3098218</v>
+        <v>3098219</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>123</v>
@@ -2857,7 +2863,7 @@
         <v>6154</v>
       </c>
       <c r="N23" s="7">
-        <v>6298471</v>
+        <v>6298472</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>129</v>
@@ -2878,7 +2884,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>26</v>
@@ -2908,7 +2914,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>26</v>
@@ -2944,7 +2950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7128194E-791F-4223-853B-466BA7276230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DAAE1F-A47F-4553-B71E-FBE43FB77E2F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3089,7 +3095,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3098,13 +3104,13 @@
         <v>1952</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,10 +3125,10 @@
         <v>452145</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3134,10 +3140,10 @@
         <v>428347</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3149,10 +3155,10 @@
         <v>880493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3223,13 +3229,13 @@
         <v>3939</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3238,13 +3244,13 @@
         <v>935</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3253,13 +3259,13 @@
         <v>4874</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3280,13 @@
         <v>682299</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>569</v>
@@ -3289,10 +3295,10 @@
         <v>608279</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3366,7 +3372,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3381,10 +3387,10 @@
         <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3393,13 +3399,13 @@
         <v>9831</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3408,7 +3414,7 @@
         <v>14778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>163</v>
@@ -3432,10 +3438,10 @@
         <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
         <v>656</v>
@@ -3444,13 +3450,13 @@
         <v>699001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1300</v>
@@ -3459,7 +3465,7 @@
         <v>1374108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>170</v>
@@ -3521,7 +3527,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3551,7 +3557,7 @@
         <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>176</v>
@@ -3605,7 +3611,7 @@
         <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
         <v>1066</v>
@@ -3676,7 +3682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3709,7 +3715,7 @@
         <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -3718,13 +3724,13 @@
         <v>63164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3745,13 @@
         <v>392242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>379</v>
@@ -3754,13 +3760,13 @@
         <v>419715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>736</v>
@@ -3769,13 +3775,13 @@
         <v>811955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,7 +3837,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3843,13 +3849,13 @@
         <v>120935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
@@ -3858,13 +3864,13 @@
         <v>124088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -3873,13 +3879,13 @@
         <v>245023</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3900,13 @@
         <v>436711</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>577</v>
@@ -3909,13 +3915,13 @@
         <v>616848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>970</v>
@@ -3924,13 +3930,13 @@
         <v>1053559</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4004,13 @@
         <v>180488</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H22" s="7">
         <v>159</v>
@@ -4013,13 +4019,13 @@
         <v>170460</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>226</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -4028,13 +4034,13 @@
         <v>350949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4049,13 +4055,13 @@
         <v>3239515</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>3130</v>
@@ -4064,13 +4070,13 @@
         <v>3378710</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M23" s="7">
         <v>6167</v>
@@ -4079,13 +4085,13 @@
         <v>6618223</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,7 +4169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24758C9-9B56-4CB0-B526-16571A6F1C40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB1116-E0B2-4BB1-973B-BAC33C722DE9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4180,7 +4186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4290,10 +4296,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4302,13 +4308,13 @@
         <v>1001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4317,13 +4323,13 @@
         <v>1001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,7 +4347,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4353,10 +4359,10 @@
         <v>394754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4368,10 +4374,10 @@
         <v>814217</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4442,13 +4448,13 @@
         <v>2409</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4457,13 +4463,13 @@
         <v>5775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4472,13 +4478,13 @@
         <v>8184</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,10 +4499,10 @@
         <v>588087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4508,13 +4514,13 @@
         <v>557769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>1138</v>
@@ -4523,13 +4529,13 @@
         <v>1145856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,7 +4591,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4597,13 +4603,13 @@
         <v>1951</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4612,13 +4618,13 @@
         <v>5671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4627,13 +4633,13 @@
         <v>7622</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,10 +4654,10 @@
         <v>667146</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4663,13 +4669,13 @@
         <v>655715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>1295</v>
@@ -4678,13 +4684,13 @@
         <v>1322861</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,7 +4746,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4782,13 +4788,13 @@
         <v>34202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4809,13 @@
         <v>626503</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>588</v>
@@ -4818,28 +4824,28 @@
         <v>634419</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>1152</v>
       </c>
       <c r="N14" s="7">
-        <v>1260923</v>
+        <v>1260924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,7 +4887,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -4895,7 +4901,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4907,13 +4913,13 @@
         <v>50835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4922,13 +4928,13 @@
         <v>14369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -4937,13 +4943,13 @@
         <v>65205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4964,13 @@
         <v>427083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>420</v>
@@ -4973,13 +4979,13 @@
         <v>482480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>800</v>
@@ -4988,13 +4994,13 @@
         <v>909562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,7 +5056,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5062,13 +5068,13 @@
         <v>128360</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -5077,13 +5083,13 @@
         <v>149510</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>259</v>
@@ -5092,13 +5098,13 @@
         <v>277870</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5119,13 @@
         <v>462968</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>533</v>
@@ -5128,13 +5134,13 @@
         <v>628421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>1023</v>
@@ -5143,13 +5149,13 @@
         <v>1091389</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5223,13 @@
         <v>203100</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>162</v>
@@ -5232,13 +5238,13 @@
         <v>190984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -5247,13 +5253,13 @@
         <v>394084</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5274,13 @@
         <v>3191250</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>3176</v>
@@ -5283,13 +5289,13 @@
         <v>3353558</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>6204</v>
@@ -5298,13 +5304,13 @@
         <v>6544808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,7 +5388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F911AD9D-399B-48D4-8D2F-5D550367246B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BC97F1-A436-4285-9F64-0DBFDE37C21F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5399,7 +5405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5509,10 +5515,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5521,13 +5527,13 @@
         <v>3366</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5536,13 +5542,13 @@
         <v>3366</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,7 +5566,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -5572,10 +5578,10 @@
         <v>351591</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5664,10 +5670,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5676,13 +5682,13 @@
         <v>2322</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5691,13 +5697,13 @@
         <v>2322</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,7 +5721,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -5727,10 +5733,10 @@
         <v>496255</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5742,10 +5748,10 @@
         <v>924651</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -5804,7 +5810,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5816,13 +5822,13 @@
         <v>3955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5831,13 +5837,13 @@
         <v>3871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -5846,13 +5852,13 @@
         <v>7826</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5873,13 @@
         <v>553297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H11" s="7">
         <v>840</v>
@@ -5882,13 +5888,13 @@
         <v>579605</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>1383</v>
@@ -5897,13 +5903,13 @@
         <v>1132901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,7 +5965,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5971,13 +5977,13 @@
         <v>26957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5986,13 +5992,13 @@
         <v>11309</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -6001,13 +6007,13 @@
         <v>38266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6028,13 @@
         <v>697033</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>1123</v>
@@ -6037,28 +6043,28 @@
         <v>735952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>1762</v>
       </c>
       <c r="N14" s="7">
-        <v>1432986</v>
+        <v>1432985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,7 +6106,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -6114,7 +6120,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6126,13 +6132,13 @@
         <v>44678</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -6141,13 +6147,13 @@
         <v>26170</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -6156,13 +6162,13 @@
         <v>70847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6183,13 @@
         <v>554408</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>956</v>
@@ -6192,13 +6198,13 @@
         <v>566693</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>1566</v>
@@ -6207,13 +6213,13 @@
         <v>1121102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,7 +6275,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6281,13 +6287,13 @@
         <v>123363</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H19" s="7">
         <v>275</v>
@@ -6296,13 +6302,13 @@
         <v>152301</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M19" s="7">
         <v>464</v>
@@ -6311,13 +6317,13 @@
         <v>275665</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,16 +6335,16 @@
         <v>839</v>
       </c>
       <c r="D20" s="7">
-        <v>574391</v>
+        <v>574392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>1431</v>
@@ -6347,13 +6353,13 @@
         <v>873070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>2270</v>
@@ -6362,13 +6368,13 @@
         <v>1447461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,7 +6386,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -6436,13 +6442,13 @@
         <v>198953</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>345</v>
@@ -6451,13 +6457,13 @@
         <v>199339</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>615</v>
@@ -6466,13 +6472,13 @@
         <v>398292</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>229</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>191</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6493,13 @@
         <v>3185205</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="H23" s="7">
         <v>5014</v>
@@ -6502,13 +6508,13 @@
         <v>3603166</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
         <v>8119</v>
@@ -6517,13 +6523,13 @@
         <v>6788370</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>199</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>424</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F535A03-1CB3-4533-B00E-30035D1EB2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2FB60AF-6F85-4631-8D19-27C8F1BFFE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9506635A-14DA-4C69-A3F5-8902283C9091}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{319CAA04-B6AF-449F-9639-FE88B8725F94}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="429">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,0%</t>
+    <t>99,16%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,13 +110,13 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>98,85%</t>
+    <t>98,99%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,36%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,28 +128,34 @@
     <t>0,13%</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,55%</t>
+    <t>0,58%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
+    <t>99,31%</t>
+  </si>
+  <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
   </si>
   <si>
     <t>99,94%</t>
@@ -161,1014 +167,1020 @@
     <t>0,72%</t>
   </si>
   <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>98,76%</t>
   </si>
   <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
     <t>97,4%</t>
   </si>
   <si>
@@ -1199,9 +1211,6 @@
     <t>5,94%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
     <t>7,18%</t>
   </si>
   <si>
@@ -1227,9 +1236,6 @@
   </si>
   <si>
     <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
   </si>
   <si>
     <t>17,68%</t>
@@ -1731,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBF8DF5-1BA5-426C-8086-A2CA78ACE556}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E566798-8B53-4AAD-825A-AD13655BE874}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2016,7 +2022,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2025,13 +2031,13 @@
         <v>1847</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2043,10 +2049,10 @@
         <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,10 +2067,10 @@
         <v>734554</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -2076,10 +2082,10 @@
         <v>623647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -2094,10 +2100,10 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,7 +2159,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2165,13 +2171,13 @@
         <v>4616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2180,13 +2186,13 @@
         <v>7696</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2195,13 +2201,13 @@
         <v>12312</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2222,13 @@
         <v>633033</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>651</v>
@@ -2231,13 +2237,13 @@
         <v>682048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>1258</v>
@@ -2246,13 +2252,13 @@
         <v>1315082</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2314,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2320,13 +2326,13 @@
         <v>12816</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2335,13 +2341,13 @@
         <v>17249</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -2350,13 +2356,13 @@
         <v>30065</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2377,13 @@
         <v>506331</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>486</v>
@@ -2386,13 +2392,13 @@
         <v>498393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>958</v>
@@ -2401,13 +2407,13 @@
         <v>1004724</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,7 +2469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2475,13 +2481,13 @@
         <v>42847</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -2490,13 +2496,13 @@
         <v>24653</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -2505,13 +2511,13 @@
         <v>67500</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2532,13 @@
         <v>343863</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>372</v>
@@ -2541,13 +2547,13 @@
         <v>379333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>720</v>
@@ -2556,13 +2562,13 @@
         <v>723196</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,7 +2624,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2630,13 +2636,13 @@
         <v>115272</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -2645,13 +2651,13 @@
         <v>126560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -2660,13 +2666,13 @@
         <v>241832</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2687,13 @@
         <v>387194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>539</v>
@@ -2696,13 +2702,13 @@
         <v>550282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>941</v>
@@ -2711,13 +2717,13 @@
         <v>937476</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,13 +2791,13 @@
         <v>177307</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -2800,13 +2806,13 @@
         <v>178944</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>356</v>
@@ -2815,13 +2821,13 @@
         <v>356251</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,16 +2839,16 @@
         <v>3029</v>
       </c>
       <c r="D23" s="7">
-        <v>3098219</v>
+        <v>3098218</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>3125</v>
@@ -2851,13 +2857,13 @@
         <v>3200254</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>6154</v>
@@ -2866,13 +2872,13 @@
         <v>6298472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,7 +2890,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>26</v>
@@ -2928,7 +2934,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2950,7 +2956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DAAE1F-A47F-4553-B71E-FBE43FB77E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E369A35D-D9E1-4A3B-8B84-CD91FF26E9C5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2967,7 +2973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3074,13 +3080,13 @@
         <v>960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3089,13 +3095,13 @@
         <v>992</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3104,13 +3110,13 @@
         <v>1952</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,10 +3131,10 @@
         <v>452145</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3140,10 +3146,10 @@
         <v>428347</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3155,10 +3161,10 @@
         <v>880493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3229,13 +3235,13 @@
         <v>3939</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3244,13 +3250,13 @@
         <v>935</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3259,13 +3265,13 @@
         <v>4874</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3286,13 @@
         <v>682299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H8" s="7">
         <v>569</v>
@@ -3295,10 +3301,10 @@
         <v>608279</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3310,13 +3316,13 @@
         <v>1290577</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3378,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3384,13 +3390,13 @@
         <v>4947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3399,13 +3405,13 @@
         <v>9831</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3414,13 +3420,13 @@
         <v>14778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3441,13 @@
         <v>675107</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>656</v>
@@ -3450,13 +3456,13 @@
         <v>699001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1300</v>
@@ -3465,13 +3471,13 @@
         <v>1374108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,7 +3533,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3539,13 +3545,13 @@
         <v>13605</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3554,13 +3560,13 @@
         <v>7552</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3569,13 +3575,13 @@
         <v>21157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3596,13 @@
         <v>601012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>530</v>
@@ -3605,13 +3611,13 @@
         <v>606520</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1066</v>
@@ -3620,13 +3626,13 @@
         <v>1207532</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,7 +3688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3694,13 +3700,13 @@
         <v>36102</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3709,13 +3715,13 @@
         <v>27061</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -3724,13 +3730,13 @@
         <v>63164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3751,13 @@
         <v>392242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>379</v>
@@ -3760,13 +3766,13 @@
         <v>419715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>736</v>
@@ -3775,13 +3781,13 @@
         <v>811955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,7 +3843,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3849,13 +3855,13 @@
         <v>120935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
@@ -3864,13 +3870,13 @@
         <v>124088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -3879,13 +3885,13 @@
         <v>245023</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3906,13 @@
         <v>436711</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>577</v>
@@ -3915,13 +3921,13 @@
         <v>616848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>970</v>
@@ -3930,13 +3936,13 @@
         <v>1053559</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4010,13 @@
         <v>180488</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H22" s="7">
         <v>159</v>
@@ -4019,13 +4025,13 @@
         <v>170460</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -4034,13 +4040,13 @@
         <v>350949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4061,13 @@
         <v>3239515</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
         <v>3130</v>
@@ -4070,13 +4076,13 @@
         <v>3378710</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M23" s="7">
         <v>6167</v>
@@ -4085,13 +4091,13 @@
         <v>6618223</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,7 +4153,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4169,7 +4175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDB1116-E0B2-4BB1-973B-BAC33C722DE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5485A1-2BBD-4E7E-9299-C7E784E848A4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4186,7 +4192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4296,10 +4302,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4308,13 +4314,13 @@
         <v>1001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4323,13 +4329,13 @@
         <v>1001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,7 +4353,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4359,10 +4365,10 @@
         <v>394754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4374,10 +4380,10 @@
         <v>814217</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4448,13 +4454,13 @@
         <v>2409</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4463,13 +4469,13 @@
         <v>5775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4478,13 +4484,13 @@
         <v>8184</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,10 +4505,10 @@
         <v>588087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4514,13 +4520,13 @@
         <v>557769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>1138</v>
@@ -4529,13 +4535,13 @@
         <v>1145856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,7 +4597,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4603,13 +4609,13 @@
         <v>1951</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4618,13 +4624,13 @@
         <v>5671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4633,13 +4639,13 @@
         <v>7622</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,10 +4660,10 @@
         <v>667146</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4669,13 +4675,13 @@
         <v>655715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>1295</v>
@@ -4684,13 +4690,13 @@
         <v>1322861</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,7 +4752,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4758,13 +4764,13 @@
         <v>19545</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4773,13 +4779,13 @@
         <v>14658</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -4788,13 +4794,13 @@
         <v>34202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4815,13 @@
         <v>626503</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>588</v>
@@ -4824,28 +4830,28 @@
         <v>634419</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>1152</v>
       </c>
       <c r="N14" s="7">
-        <v>1260924</v>
+        <v>1260923</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,7 +4893,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -4901,7 +4907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4913,13 +4919,13 @@
         <v>50835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4928,13 +4934,13 @@
         <v>14369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -4943,13 +4949,13 @@
         <v>65205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4970,13 @@
         <v>427083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>420</v>
@@ -4979,13 +4985,13 @@
         <v>482480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>800</v>
@@ -4994,13 +5000,13 @@
         <v>909562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,7 +5062,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5068,13 +5074,13 @@
         <v>128360</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -5083,13 +5089,13 @@
         <v>149510</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>259</v>
@@ -5098,13 +5104,13 @@
         <v>277870</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5125,13 @@
         <v>462968</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>533</v>
@@ -5134,13 +5140,13 @@
         <v>628421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>1023</v>
@@ -5149,13 +5155,13 @@
         <v>1091389</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5229,13 @@
         <v>203100</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H22" s="7">
         <v>162</v>
@@ -5238,13 +5244,13 @@
         <v>190984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>229</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -5253,13 +5259,13 @@
         <v>394084</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5280,13 @@
         <v>3191250</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="H23" s="7">
         <v>3176</v>
@@ -5289,13 +5295,13 @@
         <v>3353558</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>335</v>
+        <v>239</v>
       </c>
       <c r="M23" s="7">
         <v>6204</v>
@@ -5304,13 +5310,13 @@
         <v>6544808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>344</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,7 +5372,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5388,7 +5394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BC97F1-A436-4285-9F64-0DBFDE37C21F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDCDCF6-8A2A-408F-8425-7EFE48AB7BCB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5405,7 +5411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5515,10 +5521,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>249</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5527,13 +5533,13 @@
         <v>3366</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5542,13 +5548,13 @@
         <v>3366</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,7 +5572,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -5578,10 +5584,10 @@
         <v>351591</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5593,10 +5599,10 @@
         <v>729270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5670,10 +5676,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5682,13 +5688,13 @@
         <v>2322</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5697,13 +5703,13 @@
         <v>2322</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,7 +5727,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -5733,10 +5739,10 @@
         <v>496255</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5748,10 +5754,10 @@
         <v>924651</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -5810,7 +5816,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5822,13 +5828,13 @@
         <v>3955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5837,13 +5843,13 @@
         <v>3871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -5852,13 +5858,13 @@
         <v>7826</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>29</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5879,13 @@
         <v>553297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7">
         <v>840</v>
@@ -5888,13 +5894,13 @@
         <v>579605</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M11" s="7">
         <v>1383</v>
@@ -5903,13 +5909,13 @@
         <v>1132901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,7 +5971,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5980,10 +5986,10 @@
         <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5992,13 +5998,13 @@
         <v>11309</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>369</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -6007,13 +6013,13 @@
         <v>38266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6034,13 @@
         <v>697033</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>1123</v>
@@ -6043,13 +6049,13 @@
         <v>735952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>1762</v>
@@ -6058,13 +6064,13 @@
         <v>1432985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,7 +6126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6132,13 +6138,13 @@
         <v>44678</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -6147,13 +6153,13 @@
         <v>26170</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -6162,13 +6168,13 @@
         <v>70847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6189,13 @@
         <v>554408</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>956</v>
@@ -6198,13 +6204,13 @@
         <v>566693</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>1566</v>
@@ -6213,13 +6219,13 @@
         <v>1121102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,7 +6281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6287,13 +6293,13 @@
         <v>123363</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>275</v>
@@ -6302,13 +6308,13 @@
         <v>152301</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>464</v>
@@ -6317,13 +6323,13 @@
         <v>275665</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6344,13 @@
         <v>574392</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>1431</v>
@@ -6353,13 +6359,13 @@
         <v>873070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>2270</v>
@@ -6368,13 +6374,13 @@
         <v>1447461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6448,13 @@
         <v>198953</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>329</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H22" s="7">
         <v>345</v>
@@ -6457,13 +6463,13 @@
         <v>199339</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>615</v>
@@ -6472,13 +6478,13 @@
         <v>398292</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6499,13 @@
         <v>3185205</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>73</v>
       </c>
       <c r="H23" s="7">
         <v>5014</v>
@@ -6508,13 +6514,13 @@
         <v>3603166</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
         <v>8119</v>
@@ -6523,13 +6529,13 @@
         <v>6788370</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,7 +6591,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2FB60AF-6F85-4631-8D19-27C8F1BFFE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{217AD7DA-6512-4021-A9D4-9668BF608564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{319CAA04-B6AF-449F-9639-FE88B8725F94}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A88F3733-BB8A-454E-A961-F400E494DFA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="425">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,17%</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -92,7 +92,7 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,16%</t>
+    <t>99,17%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,4%</t>
+    <t>99,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,1204 +128,1192 @@
     <t>0,13%</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,21%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>94,12%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>93,35%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E566798-8B53-4AAD-825A-AD13655BE874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C7432F-3F46-47F9-89C7-9BC7F9EABC52}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2672,7 +2660,7 @@
         <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2675,13 @@
         <v>387194</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>539</v>
@@ -2702,13 +2690,13 @@
         <v>550282</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>941</v>
@@ -2717,13 +2705,13 @@
         <v>937476</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2779,13 @@
         <v>177307</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>172</v>
@@ -2806,13 +2794,13 @@
         <v>178944</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>356</v>
@@ -2821,13 +2809,13 @@
         <v>356251</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2830,13 @@
         <v>3098218</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>3125</v>
@@ -2857,28 +2845,28 @@
         <v>3200254</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>6154</v>
       </c>
       <c r="N23" s="7">
-        <v>6298472</v>
+        <v>6298471</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,7 +2908,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>26</v>
@@ -2934,7 +2922,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2956,7 +2944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E369A35D-D9E1-4A3B-8B84-CD91FF26E9C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E61CD2E-083B-459D-814E-84AFEEA911C9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2973,7 +2961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3080,13 +3068,13 @@
         <v>960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3095,13 +3083,13 @@
         <v>992</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3110,13 +3098,13 @@
         <v>1952</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,10 +3119,10 @@
         <v>452145</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3146,10 +3134,10 @@
         <v>428347</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3161,10 +3149,10 @@
         <v>880493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3235,13 +3223,13 @@
         <v>3939</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3250,13 +3238,13 @@
         <v>935</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3265,13 +3253,13 @@
         <v>4874</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3274,13 @@
         <v>682299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>569</v>
@@ -3301,10 +3289,10 @@
         <v>608279</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3316,13 +3304,13 @@
         <v>1290577</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3378,13 @@
         <v>4947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3405,13 +3393,13 @@
         <v>9831</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3420,13 +3408,13 @@
         <v>14778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3429,13 @@
         <v>675107</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>656</v>
@@ -3456,13 +3444,13 @@
         <v>699001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>1300</v>
@@ -3471,13 +3459,13 @@
         <v>1374108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3533,13 @@
         <v>13605</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3560,13 +3548,13 @@
         <v>7552</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3575,13 +3563,13 @@
         <v>21157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3584,13 @@
         <v>601012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>530</v>
@@ -3611,13 +3599,13 @@
         <v>606520</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>1066</v>
@@ -3626,13 +3614,13 @@
         <v>1207532</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3688,13 @@
         <v>36102</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3715,13 +3703,13 @@
         <v>27061</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -3730,13 +3718,13 @@
         <v>63164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3739,13 @@
         <v>392242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>379</v>
@@ -3766,13 +3754,13 @@
         <v>419715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>736</v>
@@ -3781,13 +3769,13 @@
         <v>811955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3843,13 @@
         <v>120935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>115</v>
@@ -3870,13 +3858,13 @@
         <v>124088</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -3885,13 +3873,13 @@
         <v>245023</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3894,13 @@
         <v>436711</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>577</v>
@@ -3921,13 +3909,13 @@
         <v>616848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>970</v>
@@ -3936,13 +3924,13 @@
         <v>1053559</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +3998,13 @@
         <v>180488</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>159</v>
@@ -4025,13 +4013,13 @@
         <v>170460</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M22" s="7">
         <v>325</v>
@@ -4040,13 +4028,13 @@
         <v>350949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4049,13 @@
         <v>3239515</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H23" s="7">
         <v>3130</v>
@@ -4076,13 +4064,13 @@
         <v>3378710</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="M23" s="7">
         <v>6167</v>
@@ -4091,13 +4079,13 @@
         <v>6618223</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,7 +4141,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4175,7 +4163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5485A1-2BBD-4E7E-9299-C7E784E848A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E90CDA0-4057-42FA-80C7-926E51C2EB41}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4192,7 +4180,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4302,10 +4290,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4314,13 +4302,13 @@
         <v>1001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4329,13 +4317,13 @@
         <v>1001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,7 +4341,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4365,10 +4353,10 @@
         <v>394754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4380,10 +4368,10 @@
         <v>814217</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4454,13 +4442,13 @@
         <v>2409</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4469,13 +4457,13 @@
         <v>5775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4484,13 +4472,13 @@
         <v>8184</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,10 +4493,10 @@
         <v>588087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4520,13 +4508,13 @@
         <v>557769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>1138</v>
@@ -4535,13 +4523,13 @@
         <v>1145856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4597,13 @@
         <v>1951</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4624,13 +4612,13 @@
         <v>5671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4639,13 +4627,13 @@
         <v>7622</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,10 +4648,10 @@
         <v>667146</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4675,13 +4663,13 @@
         <v>655715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>1295</v>
@@ -4690,13 +4678,13 @@
         <v>1322861</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4752,13 @@
         <v>19545</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4779,13 +4767,13 @@
         <v>14658</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -4794,13 +4782,13 @@
         <v>34202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4803,13 @@
         <v>626503</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>588</v>
@@ -4830,13 +4818,13 @@
         <v>634419</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>1152</v>
@@ -4845,13 +4833,13 @@
         <v>1260923</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4907,13 @@
         <v>50835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4934,13 +4922,13 @@
         <v>14369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -4949,13 +4937,13 @@
         <v>65205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4958,13 @@
         <v>427083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>420</v>
@@ -4985,13 +4973,13 @@
         <v>482480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>51</v>
       </c>
       <c r="M17" s="7">
         <v>800</v>
@@ -5000,13 +4988,13 @@
         <v>909562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5062,13 @@
         <v>128360</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -5089,13 +5077,13 @@
         <v>149510</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>259</v>
@@ -5104,13 +5092,13 @@
         <v>277870</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5113,13 @@
         <v>462968</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>533</v>
@@ -5140,13 +5128,13 @@
         <v>628421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>1023</v>
@@ -5155,13 +5143,13 @@
         <v>1091389</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5217,13 @@
         <v>203100</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
         <v>162</v>
@@ -5244,13 +5232,13 @@
         <v>190984</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -5259,13 +5247,13 @@
         <v>394084</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5268,13 @@
         <v>3191250</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>3176</v>
@@ -5295,13 +5283,13 @@
         <v>3353558</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>6204</v>
@@ -5310,13 +5298,13 @@
         <v>6544808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,7 +5360,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5394,7 +5382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDCDCF6-8A2A-408F-8425-7EFE48AB7BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88273FE2-EC73-4D27-84AF-CBE70D94413A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5411,7 +5399,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5521,10 +5509,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>249</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5533,13 +5521,13 @@
         <v>3366</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5548,13 +5536,13 @@
         <v>3366</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,7 +5560,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>253</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -5584,10 +5572,10 @@
         <v>351591</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5599,10 +5587,10 @@
         <v>729270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5676,10 +5664,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5688,13 +5676,13 @@
         <v>2322</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5703,13 +5691,13 @@
         <v>2322</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,7 +5715,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -5739,10 +5727,10 @@
         <v>496255</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5754,10 +5742,10 @@
         <v>924651</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -5828,13 +5816,13 @@
         <v>3955</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5843,13 +5831,13 @@
         <v>3871</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -5858,13 +5846,13 @@
         <v>7826</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5867,13 @@
         <v>553297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H11" s="7">
         <v>840</v>
@@ -5894,13 +5882,13 @@
         <v>579605</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>1383</v>
@@ -5909,10 +5897,10 @@
         <v>1132901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>36</v>
@@ -5983,13 +5971,13 @@
         <v>26957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5998,13 +5986,13 @@
         <v>11309</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -6013,13 +6001,13 @@
         <v>38266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6022,13 @@
         <v>697033</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>1123</v>
@@ -6049,28 +6037,28 @@
         <v>735952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>1762</v>
       </c>
       <c r="N14" s="7">
-        <v>1432985</v>
+        <v>1432986</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,7 +6100,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -6138,13 +6126,13 @@
         <v>44678</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -6153,13 +6141,13 @@
         <v>26170</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -6168,13 +6156,13 @@
         <v>70847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6177,13 @@
         <v>554408</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>956</v>
@@ -6204,13 +6192,13 @@
         <v>566693</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>1566</v>
@@ -6219,13 +6207,13 @@
         <v>1121102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,13 +6281,13 @@
         <v>123363</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>275</v>
@@ -6308,13 +6296,13 @@
         <v>152301</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>464</v>
@@ -6323,13 +6311,13 @@
         <v>275665</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,16 +6329,16 @@
         <v>839</v>
       </c>
       <c r="D20" s="7">
-        <v>574392</v>
+        <v>574391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>1431</v>
@@ -6359,13 +6347,13 @@
         <v>873070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>2270</v>
@@ -6374,13 +6362,13 @@
         <v>1447461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,7 +6380,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -6448,13 +6436,13 @@
         <v>198953</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>345</v>
@@ -6463,13 +6451,13 @@
         <v>199339</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>615</v>
@@ -6478,13 +6466,13 @@
         <v>398292</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>421</v>
+        <v>226</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6487,13 @@
         <v>3185205</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>73</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>5014</v>
@@ -6514,13 +6502,13 @@
         <v>3603166</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M23" s="7">
         <v>8119</v>
@@ -6529,13 +6517,13 @@
         <v>6788370</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>231</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>199</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>243</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,7 +6579,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{217AD7DA-6512-4021-A9D4-9668BF608564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B18FF187-6BCE-45F6-9DC6-57385B2161F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A88F3733-BB8A-454E-A961-F400E494DFA4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7B5CD181-A06D-414D-9719-40B06A622636}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="488">
   <si>
     <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -122,7 +122,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -161,7 +161,7 @@
     <t>99,94%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,72%</t>
@@ -218,7 +218,7 @@
     <t>99,48%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,47%</t>
@@ -275,7 +275,7 @@
     <t>98,06%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>11,08%</t>
@@ -332,988 +332,1177 @@
     <t>93,33%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>21,93%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
   </si>
   <si>
     <t>78,07%</t>
   </si>
   <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
 </sst>
 </file>
@@ -1725,8 +1914,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C7432F-3F46-47F9-89C7-9BC7F9EABC52}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F49A8EF-4DAE-4CB2-92F4-475172AB30ED}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2618,10 +2807,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
-        <v>115272</v>
+        <v>51392</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>98</v>
@@ -2633,10 +2822,10 @@
         <v>100</v>
       </c>
       <c r="H19" s="7">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="I19" s="7">
-        <v>126560</v>
+        <v>51573</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>101</v>
@@ -2648,10 +2837,10 @@
         <v>103</v>
       </c>
       <c r="M19" s="7">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="N19" s="7">
-        <v>241832</v>
+        <v>102964</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>104</v>
@@ -2660,7 +2849,7 @@
         <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,49 +2858,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>402</v>
+        <v>249</v>
       </c>
       <c r="D20" s="7">
-        <v>387194</v>
+        <v>241191</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
-        <v>539</v>
+        <v>316</v>
       </c>
       <c r="I20" s="7">
-        <v>550282</v>
+        <v>291361</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
-        <v>941</v>
+        <v>565</v>
       </c>
       <c r="N20" s="7">
-        <v>937476</v>
+        <v>532553</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,10 +2909,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -2735,10 +2924,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -2750,10 +2939,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -2767,55 +2956,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="D22" s="7">
-        <v>177307</v>
+        <v>63880</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="I22" s="7">
-        <v>178944</v>
+        <v>74987</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
-        <v>356</v>
+        <v>134</v>
       </c>
       <c r="N22" s="7">
-        <v>356251</v>
+        <v>138867</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,49 +3013,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3029</v>
+        <v>153</v>
       </c>
       <c r="D23" s="7">
-        <v>3098218</v>
+        <v>146003</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
-        <v>3125</v>
+        <v>223</v>
       </c>
       <c r="I23" s="7">
-        <v>3200254</v>
+        <v>258921</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
-        <v>6154</v>
+        <v>376</v>
       </c>
       <c r="N23" s="7">
-        <v>6298471</v>
+        <v>404924</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,63 +3064,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>184</v>
+      </c>
+      <c r="D25" s="7">
+        <v>177307</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H25" s="7">
+        <v>172</v>
+      </c>
+      <c r="I25" s="7">
+        <v>178944</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" s="7">
+        <v>356</v>
+      </c>
+      <c r="N25" s="7">
+        <v>356251</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3029</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3098218</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3125</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3200253</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6154</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6298471</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2944,8 +3289,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E61CD2E-083B-459D-814E-84AFEEA911C9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F54893F-25DC-40D8-812D-790A8F3E4912}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2961,7 +3306,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3068,13 +3413,13 @@
         <v>960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3083,13 +3428,13 @@
         <v>992</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3098,13 +3443,13 @@
         <v>1952</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,10 +3464,10 @@
         <v>452145</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3134,10 +3479,10 @@
         <v>428347</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3149,10 +3494,10 @@
         <v>880493</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3223,13 +3568,13 @@
         <v>3939</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3238,7 +3583,7 @@
         <v>935</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
@@ -3253,13 +3598,13 @@
         <v>4874</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3619,13 @@
         <v>682299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>569</v>
@@ -3289,7 +3634,7 @@
         <v>608279</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>35</v>
@@ -3304,13 +3649,13 @@
         <v>1290577</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3723,13 @@
         <v>4947</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3393,13 +3738,13 @@
         <v>9831</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3408,13 +3753,13 @@
         <v>14778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3774,13 @@
         <v>675107</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>656</v>
@@ -3444,13 +3789,13 @@
         <v>699001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="M11" s="7">
         <v>1300</v>
@@ -3459,13 +3804,13 @@
         <v>1374108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3878,13 @@
         <v>13605</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3548,13 +3893,13 @@
         <v>7552</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3563,13 +3908,13 @@
         <v>21157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3929,13 @@
         <v>601012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>530</v>
@@ -3599,10 +3944,10 @@
         <v>606520</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>58</v>
@@ -3614,13 +3959,13 @@
         <v>1207532</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +4033,13 @@
         <v>36102</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3703,13 +4048,13 @@
         <v>27061</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -3718,13 +4063,13 @@
         <v>63164</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +4084,13 @@
         <v>392242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>379</v>
@@ -3754,13 +4099,13 @@
         <v>419715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>736</v>
@@ -3769,13 +4114,13 @@
         <v>811955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,49 +4182,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>120935</v>
+        <v>46387</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="H19" s="7">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>124088</v>
+        <v>36955</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="N19" s="7">
-        <v>245023</v>
+        <v>83342</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,49 +4233,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>393</v>
+        <v>237</v>
       </c>
       <c r="D20" s="7">
-        <v>436711</v>
+        <v>261408</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
-        <v>577</v>
+        <v>307</v>
       </c>
       <c r="I20" s="7">
-        <v>616848</v>
+        <v>316046</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M20" s="7">
-        <v>970</v>
+        <v>544</v>
       </c>
       <c r="N20" s="7">
-        <v>1053559</v>
+        <v>577454</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,10 +4284,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>503</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>557646</v>
+        <v>307795</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -3954,10 +4299,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>692</v>
+        <v>343</v>
       </c>
       <c r="I21" s="7">
-        <v>740936</v>
+        <v>353001</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -3969,10 +4314,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>1195</v>
+        <v>624</v>
       </c>
       <c r="N21" s="7">
-        <v>1298582</v>
+        <v>660796</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -3986,55 +4331,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="D22" s="7">
-        <v>180488</v>
+        <v>74548</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="H22" s="7">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="I22" s="7">
-        <v>170460</v>
+        <v>87133</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
-        <v>325</v>
+        <v>145</v>
       </c>
       <c r="N22" s="7">
-        <v>350949</v>
+        <v>161682</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,49 +4388,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3037</v>
+        <v>156</v>
       </c>
       <c r="D23" s="7">
-        <v>3239515</v>
+        <v>175303</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="H23" s="7">
-        <v>3130</v>
+        <v>270</v>
       </c>
       <c r="I23" s="7">
-        <v>3378710</v>
+        <v>300803</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="M23" s="7">
-        <v>6167</v>
+        <v>426</v>
       </c>
       <c r="N23" s="7">
-        <v>6618223</v>
+        <v>476105</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,63 +4439,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387936</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637787</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>166</v>
+      </c>
+      <c r="D25" s="7">
+        <v>180488</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="7">
+        <v>159</v>
+      </c>
+      <c r="I25" s="7">
+        <v>170460</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M25" s="7">
+        <v>325</v>
+      </c>
+      <c r="N25" s="7">
+        <v>350949</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3037</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3239515</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3130</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3378710</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6167</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6618224</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3203</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3420003</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>3289</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3549170</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>6492</v>
       </c>
-      <c r="N24" s="7">
-        <v>6969172</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="N27" s="7">
+        <v>6969173</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4163,8 +4664,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E90CDA0-4057-42FA-80C7-926E51C2EB41}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB9D31D-6EF6-4A2B-93CC-54C06FA0D68F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4180,7 +4681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4290,10 +4791,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4302,13 +4803,13 @@
         <v>1001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4317,13 +4818,13 @@
         <v>1001</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,7 +4842,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4353,10 +4854,10 @@
         <v>394754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -4368,10 +4869,10 @@
         <v>814217</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4442,13 +4943,13 @@
         <v>2409</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4457,13 +4958,13 @@
         <v>5775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4472,13 +4973,13 @@
         <v>8184</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,10 +4994,10 @@
         <v>588087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4508,13 +5009,13 @@
         <v>557769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>1138</v>
@@ -4523,13 +5024,13 @@
         <v>1145856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +5098,13 @@
         <v>1951</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4612,13 +5113,13 @@
         <v>5671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -4627,13 +5128,13 @@
         <v>7622</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,10 +5149,10 @@
         <v>667146</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4663,13 +5164,13 @@
         <v>655715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="M11" s="7">
         <v>1295</v>
@@ -4678,10 +5179,10 @@
         <v>1322861</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>52</v>
@@ -4752,13 +5253,13 @@
         <v>19545</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4767,13 +5268,13 @@
         <v>14658</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -4782,13 +5283,13 @@
         <v>34202</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +5304,13 @@
         <v>626503</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>588</v>
@@ -4818,13 +5319,13 @@
         <v>634419</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>1152</v>
@@ -4833,13 +5334,13 @@
         <v>1260923</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +5408,13 @@
         <v>50835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -4922,13 +5423,13 @@
         <v>14369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -4937,13 +5438,13 @@
         <v>65205</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +5459,13 @@
         <v>427083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>420</v>
@@ -4973,10 +5474,10 @@
         <v>482480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>51</v>
@@ -4988,13 +5489,13 @@
         <v>909562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,49 +5557,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="D19" s="7">
-        <v>128360</v>
+        <v>66866</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="H19" s="7">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="I19" s="7">
-        <v>149510</v>
+        <v>50675</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="M19" s="7">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="N19" s="7">
-        <v>277870</v>
+        <v>117541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,49 +5608,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>490</v>
+        <v>260</v>
       </c>
       <c r="D20" s="7">
-        <v>462968</v>
+        <v>267464</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
-        <v>533</v>
+        <v>306</v>
       </c>
       <c r="I20" s="7">
-        <v>628421</v>
+        <v>327087</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="M20" s="7">
-        <v>1023</v>
+        <v>566</v>
       </c>
       <c r="N20" s="7">
-        <v>1091389</v>
+        <v>594551</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,10 +5659,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -5173,10 +5674,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -5188,10 +5689,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -5205,55 +5706,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="D22" s="7">
-        <v>203100</v>
+        <v>61494</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="H22" s="7">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="I22" s="7">
-        <v>190984</v>
+        <v>98835</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
-        <v>365</v>
+        <v>146</v>
       </c>
       <c r="N22" s="7">
-        <v>394084</v>
+        <v>160329</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +5763,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3028</v>
+        <v>230</v>
       </c>
       <c r="D23" s="7">
-        <v>3191250</v>
+        <v>195504</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="H23" s="7">
-        <v>3176</v>
+        <v>227</v>
       </c>
       <c r="I23" s="7">
-        <v>3353558</v>
+        <v>301334</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="M23" s="7">
-        <v>6204</v>
+        <v>457</v>
       </c>
       <c r="N23" s="7">
-        <v>6544808</v>
+        <v>496838</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,63 +5814,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>203</v>
+      </c>
+      <c r="D25" s="7">
+        <v>203100</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H25" s="7">
+        <v>162</v>
+      </c>
+      <c r="I25" s="7">
+        <v>190984</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M25" s="7">
+        <v>365</v>
+      </c>
+      <c r="N25" s="7">
+        <v>394084</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3028</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3191250</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3176</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3353558</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6204</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6544808</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5382,8 +6039,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88273FE2-EC73-4D27-84AF-CBE70D94413A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38462632-B820-49FB-BF7E-54B3CCFF1D48}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5399,7 +6056,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5509,40 +6166,40 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>3366</v>
+        <v>2677</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>3366</v>
+        <v>2677</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +6211,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -5569,13 +6226,13 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>351591</v>
+        <v>310523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -5584,13 +6241,13 @@
         <v>378</v>
       </c>
       <c r="N5" s="7">
-        <v>729270</v>
+        <v>710510</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -5605,7 +6262,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -5620,7 +6277,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -5635,7 +6292,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -5664,7 +6321,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>17</v>
@@ -5673,31 +6330,31 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>2322</v>
+        <v>2484</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>273</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2322</v>
+        <v>2484</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,7 +6366,7 @@
         <v>302</v>
       </c>
       <c r="D8" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
@@ -5724,13 +6381,13 @@
         <v>458</v>
       </c>
       <c r="I8" s="7">
-        <v>496255</v>
+        <v>509020</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5739,13 +6396,13 @@
         <v>760</v>
       </c>
       <c r="N8" s="7">
-        <v>924651</v>
+        <v>932567</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>403</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -5760,7 +6417,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -5775,7 +6432,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -5790,7 +6447,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -5813,46 +6470,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3955</v>
+        <v>3762</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>3871</v>
+        <v>3785</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>7826</v>
+        <v>7547</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>404</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,43 +6521,43 @@
         <v>543</v>
       </c>
       <c r="D11" s="7">
-        <v>553297</v>
+        <v>532576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>408</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>355</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>144</v>
+        <v>409</v>
       </c>
       <c r="H11" s="7">
         <v>840</v>
       </c>
       <c r="I11" s="7">
-        <v>579605</v>
+        <v>538683</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>1383</v>
       </c>
       <c r="N11" s="7">
-        <v>1132901</v>
+        <v>1071259</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>408</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>36</v>
@@ -5915,7 +6572,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -5930,7 +6587,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -5945,7 +6602,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -5968,46 +6625,46 @@
         <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>26957</v>
+        <v>25858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>11309</v>
+        <v>10470</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>300</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>38266</v>
+        <v>36327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6019,46 +6676,46 @@
         <v>639</v>
       </c>
       <c r="D14" s="7">
-        <v>697033</v>
+        <v>861928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>37</v>
       </c>
       <c r="H14" s="7">
         <v>1123</v>
       </c>
       <c r="I14" s="7">
-        <v>735952</v>
+        <v>702411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>1762</v>
       </c>
       <c r="N14" s="7">
-        <v>1432986</v>
+        <v>1564340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,7 +6727,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -6085,7 +6742,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -6100,7 +6757,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -6123,46 +6780,46 @@
         <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>44678</v>
+        <v>41995</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
       </c>
       <c r="I16" s="7">
-        <v>26170</v>
+        <v>24012</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
       </c>
       <c r="N16" s="7">
-        <v>70847</v>
+        <v>66007</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,46 +6831,46 @@
         <v>610</v>
       </c>
       <c r="D17" s="7">
-        <v>554408</v>
+        <v>518242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="H17" s="7">
         <v>956</v>
       </c>
       <c r="I17" s="7">
-        <v>566693</v>
+        <v>520264</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="M17" s="7">
         <v>1566</v>
       </c>
       <c r="N17" s="7">
-        <v>1121102</v>
+        <v>1038506</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,7 +6882,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>26</v>
@@ -6240,7 +6897,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>592863</v>
+        <v>544276</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>26</v>
@@ -6255,7 +6912,7 @@
         <v>1661</v>
       </c>
       <c r="N18" s="7">
-        <v>1191949</v>
+        <v>1104513</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -6275,49 +6932,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="D19" s="7">
-        <v>123363</v>
+        <v>47604</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="H19" s="7">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="I19" s="7">
-        <v>152301</v>
+        <v>32660</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="M19" s="7">
-        <v>464</v>
+        <v>143</v>
       </c>
       <c r="N19" s="7">
-        <v>275665</v>
+        <v>80264</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,49 +6983,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>839</v>
+        <v>494</v>
       </c>
       <c r="D20" s="7">
-        <v>574391</v>
+        <v>320561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="H20" s="7">
-        <v>1431</v>
+        <v>760</v>
       </c>
       <c r="I20" s="7">
-        <v>873070</v>
+        <v>575708</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
-        <v>2270</v>
+        <v>1254</v>
       </c>
       <c r="N20" s="7">
-        <v>1447461</v>
+        <v>896269</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,10 +7034,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -6392,10 +7049,10 @@
         <v>26</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025371</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -6407,10 +7064,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="7">
-        <v>2734</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1723126</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -6424,55 +7081,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="D22" s="7">
-        <v>198953</v>
+        <v>67334</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>290</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="H22" s="7">
-        <v>345</v>
+        <v>208</v>
       </c>
       <c r="I22" s="7">
-        <v>199339</v>
+        <v>103443</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
-        <v>615</v>
+        <v>321</v>
       </c>
       <c r="N22" s="7">
-        <v>398292</v>
+        <v>170777</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>460</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>191</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,49 +7138,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>3105</v>
+        <v>345</v>
       </c>
       <c r="D23" s="7">
-        <v>3185205</v>
+        <v>215425</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>299</v>
+        <v>465</v>
       </c>
       <c r="H23" s="7">
-        <v>5014</v>
+        <v>671</v>
       </c>
       <c r="I23" s="7">
-        <v>3603166</v>
+        <v>321282</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="M23" s="7">
-        <v>8119</v>
+        <v>1016</v>
       </c>
       <c r="N23" s="7">
-        <v>6788370</v>
+        <v>536707</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>469</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>199</v>
+        <v>470</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,63 +7189,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424725</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707484</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>270</v>
+      </c>
+      <c r="D25" s="7">
+        <v>186554</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="H25" s="7">
+        <v>345</v>
+      </c>
+      <c r="I25" s="7">
+        <v>179530</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="M25" s="7">
+        <v>615</v>
+      </c>
+      <c r="N25" s="7">
+        <v>366084</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3105</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3272266</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5014</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3477891</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8119</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6750157</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3375</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458820</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="7">
         <v>5359</v>
       </c>
-      <c r="I24" s="7">
-        <v>3802505</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3657421</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="7">
         <v>8734</v>
       </c>
-      <c r="N24" s="7">
-        <v>7186662</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>132</v>
+      <c r="N27" s="7">
+        <v>7116241</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
